--- a/medicine/Enfance/André_Benchetrit/André_Benchetrit.xlsx
+++ b/medicine/Enfance/André_Benchetrit/André_Benchetrit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Benchetrit</t>
+          <t>André_Benchetrit</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">André Benchetrit est un écrivain français né le 29 novembre 1955 à Casablanca et décédé le 11 novembre 2009[1] à Paris[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">André Benchetrit est un écrivain français né le 29 novembre 1955 à Casablanca et décédé le 11 novembre 2009 à Paris.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Benchetrit</t>
+          <t>André_Benchetrit</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est l'auteur de romans ainsi que d'un récit pour adolescents et de nombreux livres pour enfants.
 Il a animé des ateliers d'écriture dans les écoles, les prisons, les hôpitaux.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Benchetrit</t>
+          <t>André_Benchetrit</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,17 +559,90 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Le ventre, Paris, P.O.L., 1995, 125 p. (ISBN 978-2-86744-466-1)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le ventre, Paris, P.O.L., 1995, 125 p. (ISBN 978-2-86744-466-1)
 Impasse marteau, Arles, France, Actes Sud, 1999, 112 p. (ISBN 978-2-7427-2343-0)
 Très-Grande Surface, Paris, Éditions Léo Scheer, coll. « Manifeste », 2004, 160 p. (ISBN 2-84938-016-4)
-Le Bord de la Terre, Paris, L'une et l'Autre Éditions, 2009, 88 p. (ISBN 978-2-35729-029-7)
-Récits
-Le Livre de Sabine, Paris, Éditions du Néant, 2004, 108 p. (ISBN 978-2-914655-03-3)
-Littérature d'enfance et de jeunesse
-André Benchetrit, Vendeur de cauchemars, Rodez, France, Éditions du Rouergue, coll. « DoAdo noir », 2008, 92 p. (ISBN 978-2-84156-958-8)
+Le Bord de la Terre, Paris, L'une et l'Autre Éditions, 2009, 88 p. (ISBN 978-2-35729-029-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>André_Benchetrit</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Benchetrit</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Récits</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Livre de Sabine, Paris, Éditions du Néant, 2004, 108 p. (ISBN 978-2-914655-03-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>André_Benchetrit</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Benchetrit</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>André Benchetrit, Vendeur de cauchemars, Rodez, France, Éditions du Rouergue, coll. « DoAdo noir », 2008, 92 p. (ISBN 978-2-84156-958-8)
 André Benchetrit (ill. Rémi Saillard), Les têtes rouges, Paris, Éditions Belin, coll. « Les albums de Justine », 2001, 32 p. (ISBN 978-2-7011-2871-9)
-André Benchetrit (ill. Rémi Saillard), Tom et l'enfant-loup, Paris, Éditions Belin, coll. « Les albums de Justine », 2004, 32 p. (ISBN 978-2-7011-3743-8) Prix des Incorruptibles 2006[3]
+André Benchetrit (ill. Rémi Saillard), Tom et l'enfant-loup, Paris, Éditions Belin, coll. « Les albums de Justine », 2004, 32 p. (ISBN 978-2-7011-3743-8) Prix des Incorruptibles 2006
 André Benchetrit (ill. Rémi Saillard), Alice et les Oiseaux, Paris, Éditions Belin, coll. « Les albums de Justine », 2005, 32 p. (ISBN 978-2-7011-4057-5)
 André Benchetrit et Laurent Sabathié (ill. Rébecca Dautremer), Le Moyen Age, comment c'était ?, Paris, Éditions Belin, coll. « Les questions de Justine », 2005, 32 p. (ISBN 978-2-7011-4212-8)
 André Benchetrit et Laurent Sabathié (ill. Rébecca Dautremer), En fait l'eau, c'est quoi ?, Paris, Éditions Belin, coll. « Les questions de Justine », 2005, 32 p. (ISBN 978-2-7011-4232-6)
@@ -563,9 +650,43 @@
 André Benchetrit, La Porte du Temps, Arles, France, Actes Sud Junior, 2006, 127 p. (ISBN 978-2-7427-5921-7)
 André Benchetrit et Laurent Sabathié (ill. Rébecca Dautremer), Mon corps, comment se défend-il ?, Paris, Éditions Belin, coll. « Les questions de Justine », 2006, 32 p. (ISBN 978-2-7011-4331-6)
 André Benchetrit et Laurent Sabathié (ill. Rébecca Dautremer), Les étoiles brillent, pourquoi ?, Paris, Éditions Belin, coll. « Les questions de Justine », 2007, 32 p. (ISBN 978-2-7011-4601-0)
-André Benchetrit et Laurent Sabathié (ill. Rébecca Dautremer), Le cerveau, à quoi ça sert ?, Paris, Éditions Belin, coll. « Les questions de Justine », 2007, 32 p. (ISBN 978-2-7011-4602-7)
-Œuvres publiées sous pseudonyme
-Samira Fahim, L'Hassen Rahmani, Chetrit et Sophie Tramier, Les douceurs de Kenza : une année de pâtisseries orientales, Paris, Éditions Minerva, 2005, 122 p. (ISBN 978-2-8307-0838-7). Sous le pseudonyme de Chetrit[4]</t>
+André Benchetrit et Laurent Sabathié (ill. Rébecca Dautremer), Le cerveau, à quoi ça sert ?, Paris, Éditions Belin, coll. « Les questions de Justine », 2007, 32 p. (ISBN 978-2-7011-4602-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>André_Benchetrit</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Benchetrit</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Œuvres publiées sous pseudonyme</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Samira Fahim, L'Hassen Rahmani, Chetrit et Sophie Tramier, Les douceurs de Kenza : une année de pâtisseries orientales, Paris, Éditions Minerva, 2005, 122 p. (ISBN 978-2-8307-0838-7). Sous le pseudonyme de Chetrit</t>
         </is>
       </c>
     </row>
